--- a/Batch/19/Day_1_PS.xlsx
+++ b/Batch/19/Day_1_PS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Work\Acciojob\Modules\Excel\Batch\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF1C915-8315-4854-A3CB-A2A29CCE10A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF828014-B8BF-4E5C-A39D-1FF1DAFEB0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -492,37 +492,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -858,7 +854,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -997,7 +993,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D31" t="s">
@@ -1075,201 +1071,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5269215-0B5A-4984-A971-F2CC3EAEEBE4}">
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.06640625" customWidth="1"/>
-    <col min="2" max="2" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1328125" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.9296875" customWidth="1"/>
-    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="16.06640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="13" t="s">
+      <c r="J7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1322,14 +1313,14 @@
       <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
       <c r="H20" t="s">
         <v>62</v>
       </c>
@@ -1338,9 +1329,9 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C22" t="s">

--- a/Batch/19/Day_1_PS.xlsx
+++ b/Batch/19/Day_1_PS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Work\Acciojob\Modules\Excel\Batch\19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Work\Acciojob\Modules\excel\Batch\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF828014-B8BF-4E5C-A39D-1FF1DAFEB0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E930CA9-CF9E-4B87-8978-2B2BC4712CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5269215-0B5A-4984-A971-F2CC3EAEEBE4}">
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
